--- a/EffortEstimation/PMSheets/PM23_05_19.xlsx
+++ b/EffortEstimation/PMSheets/PM23_05_19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\easter-release\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63523E80-5773-4D15-810A-0F41A053A9F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A800E3-E3A2-4B06-8AAE-D3916782F42D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>30min</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>20h</t>
   </si>
 </sst>
 </file>
@@ -453,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +516,9 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -518,6 +530,12 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -529,6 +547,12 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -540,6 +564,12 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -551,6 +581,12 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -562,6 +598,12 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
@@ -573,6 +615,12 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
@@ -582,6 +630,12 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
